--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Il7-Il2rg.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Il7-Il2rg.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,22 +82,22 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Il7</t>
   </si>
   <si>
     <t>Il2rg</t>
   </si>
   <si>
-    <t>M1</t>
-  </si>
-  <si>
     <t>M2</t>
   </si>
   <si>
     <t>Neutro</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.199535099534472</v>
+        <v>0.2744363333333333</v>
       </c>
       <c r="H2">
-        <v>0.199535099534472</v>
+        <v>0.8233090000000001</v>
       </c>
       <c r="I2">
-        <v>0.2177879129502694</v>
+        <v>0.2264196034936386</v>
       </c>
       <c r="J2">
-        <v>0.2177879129502694</v>
+        <v>0.2264196034936386</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.1272781398607</v>
+        <v>23.115164</v>
       </c>
       <c r="N2">
-        <v>13.1272781398607</v>
+        <v>69.34549200000001</v>
       </c>
       <c r="O2">
-        <v>0.07606701692713429</v>
+        <v>0.1180732502892685</v>
       </c>
       <c r="P2">
-        <v>0.07606701692713429</v>
+        <v>0.1180732502892685</v>
       </c>
       <c r="Q2">
-        <v>2.619352750253803</v>
+        <v>6.343640852558668</v>
       </c>
       <c r="R2">
-        <v>2.619352750253803</v>
+        <v>57.09276767302801</v>
       </c>
       <c r="S2">
-        <v>0.0165664768609134</v>
+        <v>0.02673409851370132</v>
       </c>
       <c r="T2">
-        <v>0.0165664768609134</v>
+        <v>0.02673409851370132</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.199535099534472</v>
+        <v>0.2744363333333333</v>
       </c>
       <c r="H3">
-        <v>0.199535099534472</v>
+        <v>0.8233090000000001</v>
       </c>
       <c r="I3">
-        <v>0.2177879129502694</v>
+        <v>0.2264196034936386</v>
       </c>
       <c r="J3">
-        <v>0.2177879129502694</v>
+        <v>0.2264196034936386</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.40945162313721</v>
+        <v>1.438934333333333</v>
       </c>
       <c r="N3">
-        <v>1.40945162313721</v>
+        <v>4.316803</v>
       </c>
       <c r="O3">
-        <v>0.008167175200592859</v>
+        <v>0.007350138363261811</v>
       </c>
       <c r="P3">
-        <v>0.008167175200592859</v>
+        <v>0.007350138363261811</v>
       </c>
       <c r="Q3">
-        <v>0.2812350699117063</v>
+        <v>0.3948958623474444</v>
       </c>
       <c r="R3">
-        <v>0.2812350699117063</v>
+        <v>3.554062761127001</v>
       </c>
       <c r="S3">
-        <v>0.001778712041636317</v>
+        <v>0.001664215413833121</v>
       </c>
       <c r="T3">
-        <v>0.001778712041636317</v>
+        <v>0.001664215413833121</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.199535099534472</v>
+        <v>0.2744363333333333</v>
       </c>
       <c r="H4">
-        <v>0.199535099534472</v>
+        <v>0.8233090000000001</v>
       </c>
       <c r="I4">
-        <v>0.2177879129502694</v>
+        <v>0.2264196034936386</v>
       </c>
       <c r="J4">
-        <v>0.2177879129502694</v>
+        <v>0.2264196034936386</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>56.6117668975441</v>
+        <v>66.60745199999999</v>
       </c>
       <c r="N4">
-        <v>56.6117668975441</v>
+        <v>199.822356</v>
       </c>
       <c r="O4">
-        <v>0.3280412119702496</v>
+        <v>0.3402337249749314</v>
       </c>
       <c r="P4">
-        <v>0.3280412119702496</v>
+        <v>0.3402337249749314</v>
       </c>
       <c r="Q4">
-        <v>11.29603454272379</v>
+        <v>18.279504899556</v>
       </c>
       <c r="R4">
-        <v>11.29603454272379</v>
+        <v>164.515544096004</v>
       </c>
       <c r="S4">
-        <v>0.07144341091667761</v>
+        <v>0.07703558510398766</v>
       </c>
       <c r="T4">
-        <v>0.07144341091667761</v>
+        <v>0.07703558510398766</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.199535099534472</v>
+        <v>0.2744363333333333</v>
       </c>
       <c r="H5">
-        <v>0.199535099534472</v>
+        <v>0.8233090000000001</v>
       </c>
       <c r="I5">
-        <v>0.2177879129502694</v>
+        <v>0.2264196034936386</v>
       </c>
       <c r="J5">
-        <v>0.2177879129502694</v>
+        <v>0.2264196034936386</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>73.5300021551716</v>
+        <v>75.59544766666666</v>
       </c>
       <c r="N5">
-        <v>73.5300021551716</v>
+        <v>226.786343</v>
       </c>
       <c r="O5">
-        <v>0.4260752197826908</v>
+        <v>0.3861447927895138</v>
       </c>
       <c r="P5">
-        <v>0.4260752197826908</v>
+        <v>0.3861447927895138</v>
       </c>
       <c r="Q5">
-        <v>14.6718162988021</v>
+        <v>20.74613747433189</v>
       </c>
       <c r="R5">
-        <v>14.6718162988021</v>
+        <v>186.715237268987</v>
       </c>
       <c r="S5">
-        <v>0.09279403287629957</v>
+        <v>0.08743075087453495</v>
       </c>
       <c r="T5">
-        <v>0.09279403287629957</v>
+        <v>0.08743075087453495</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.199535099534472</v>
+        <v>0.2744363333333333</v>
       </c>
       <c r="H6">
-        <v>0.199535099534472</v>
+        <v>0.8233090000000001</v>
       </c>
       <c r="I6">
-        <v>0.2177879129502694</v>
+        <v>0.2264196034936386</v>
       </c>
       <c r="J6">
-        <v>0.2177879129502694</v>
+        <v>0.2264196034936386</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>24.9809295181275</v>
+        <v>25.85093633333333</v>
       </c>
       <c r="N6">
-        <v>24.9809295181275</v>
+        <v>77.552809</v>
       </c>
       <c r="O6">
-        <v>0.1447539061994094</v>
+        <v>0.1320476928434343</v>
       </c>
       <c r="P6">
-        <v>0.1447539061994094</v>
+        <v>0.1320476928434343</v>
       </c>
       <c r="Q6">
-        <v>4.9845722578632</v>
+        <v>7.094436180553444</v>
       </c>
       <c r="R6">
-        <v>4.9845722578632</v>
+        <v>63.849925624981</v>
       </c>
       <c r="S6">
-        <v>0.03152565112256844</v>
+        <v>0.02989818625586018</v>
       </c>
       <c r="T6">
-        <v>0.03152565112256844</v>
+        <v>0.02989818625586017</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.199535099534472</v>
+        <v>0.2744363333333333</v>
       </c>
       <c r="H7">
-        <v>0.199535099534472</v>
+        <v>0.8233090000000001</v>
       </c>
       <c r="I7">
-        <v>0.2177879129502694</v>
+        <v>0.2264196034936386</v>
       </c>
       <c r="J7">
-        <v>0.2177879129502694</v>
+        <v>0.2264196034936386</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.91573854085714</v>
+        <v>3.161759</v>
       </c>
       <c r="N7">
-        <v>2.91573854085714</v>
+        <v>9.485277</v>
       </c>
       <c r="O7">
-        <v>0.0168954699199229</v>
+        <v>0.01615040073959013</v>
       </c>
       <c r="P7">
-        <v>0.0168954699199229</v>
+        <v>0.01615040073959013</v>
       </c>
       <c r="Q7">
-        <v>0.5817921799664256</v>
+        <v>0.8677015468436666</v>
       </c>
       <c r="R7">
-        <v>0.5817921799664256</v>
+        <v>7.809313921593001</v>
       </c>
       <c r="S7">
-        <v>0.003679629132174065</v>
+        <v>0.003656767331721365</v>
       </c>
       <c r="T7">
-        <v>0.003679629132174065</v>
+        <v>0.003656767331721365</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.716654861751555</v>
+        <v>0.7955433333333333</v>
       </c>
       <c r="H8">
-        <v>0.716654861751555</v>
+        <v>2.38663</v>
       </c>
       <c r="I8">
-        <v>0.7822120870497306</v>
+        <v>0.6563511613331356</v>
       </c>
       <c r="J8">
-        <v>0.7822120870497306</v>
+        <v>0.6563511613331356</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>13.1272781398607</v>
+        <v>23.115164</v>
       </c>
       <c r="N8">
-        <v>13.1272781398607</v>
+        <v>69.34549200000001</v>
       </c>
       <c r="O8">
-        <v>0.07606701692713429</v>
+        <v>0.1180732502892685</v>
       </c>
       <c r="P8">
-        <v>0.07606701692713429</v>
+        <v>0.1180732502892685</v>
       </c>
       <c r="Q8">
-        <v>9.40772770049608</v>
+        <v>18.38911461910667</v>
       </c>
       <c r="R8">
-        <v>9.40772770049608</v>
+        <v>165.50203157196</v>
       </c>
       <c r="S8">
-        <v>0.05950054006622089</v>
+        <v>0.07749751494973937</v>
       </c>
       <c r="T8">
-        <v>0.05950054006622089</v>
+        <v>0.07749751494973937</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.716654861751555</v>
+        <v>0.7955433333333333</v>
       </c>
       <c r="H9">
-        <v>0.716654861751555</v>
+        <v>2.38663</v>
       </c>
       <c r="I9">
-        <v>0.7822120870497306</v>
+        <v>0.6563511613331356</v>
       </c>
       <c r="J9">
-        <v>0.7822120870497306</v>
+        <v>0.6563511613331356</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.40945162313721</v>
+        <v>1.438934333333333</v>
       </c>
       <c r="N9">
-        <v>1.40945162313721</v>
+        <v>4.316803</v>
       </c>
       <c r="O9">
-        <v>0.008167175200592859</v>
+        <v>0.007350138363261811</v>
       </c>
       <c r="P9">
-        <v>0.008167175200592859</v>
+        <v>0.007350138363261811</v>
       </c>
       <c r="Q9">
-        <v>1.010090358124902</v>
+        <v>1.144734615987778</v>
       </c>
       <c r="R9">
-        <v>1.010090358124902</v>
+        <v>10.30261154389</v>
       </c>
       <c r="S9">
-        <v>0.006388463158956542</v>
+        <v>0.004824271850686123</v>
       </c>
       <c r="T9">
-        <v>0.006388463158956542</v>
+        <v>0.004824271850686123</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>24</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.716654861751555</v>
+        <v>0.7955433333333333</v>
       </c>
       <c r="H10">
-        <v>0.716654861751555</v>
+        <v>2.38663</v>
       </c>
       <c r="I10">
-        <v>0.7822120870497306</v>
+        <v>0.6563511613331356</v>
       </c>
       <c r="J10">
-        <v>0.7822120870497306</v>
+        <v>0.6563511613331356</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>56.6117668975441</v>
+        <v>66.60745199999999</v>
       </c>
       <c r="N10">
-        <v>56.6117668975441</v>
+        <v>199.822356</v>
       </c>
       <c r="O10">
-        <v>0.3280412119702496</v>
+        <v>0.3402337249749314</v>
       </c>
       <c r="P10">
-        <v>0.3280412119702496</v>
+        <v>0.3402337249749314</v>
       </c>
       <c r="Q10">
-        <v>40.57109797947073</v>
+        <v>52.98911438891999</v>
       </c>
       <c r="R10">
-        <v>40.57109797947073</v>
+        <v>476.9020295002799</v>
       </c>
       <c r="S10">
-        <v>0.256597801053572</v>
+        <v>0.2233128005119949</v>
       </c>
       <c r="T10">
-        <v>0.256597801053572</v>
+        <v>0.2233128005119949</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.716654861751555</v>
+        <v>0.7955433333333333</v>
       </c>
       <c r="H11">
-        <v>0.716654861751555</v>
+        <v>2.38663</v>
       </c>
       <c r="I11">
-        <v>0.7822120870497306</v>
+        <v>0.6563511613331356</v>
       </c>
       <c r="J11">
-        <v>0.7822120870497306</v>
+        <v>0.6563511613331356</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>73.5300021551716</v>
+        <v>75.59544766666666</v>
       </c>
       <c r="N11">
-        <v>73.5300021551716</v>
+        <v>226.786343</v>
       </c>
       <c r="O11">
-        <v>0.4260752197826908</v>
+        <v>0.3861447927895138</v>
       </c>
       <c r="P11">
-        <v>0.4260752197826908</v>
+        <v>0.3861447927895138</v>
       </c>
       <c r="Q11">
-        <v>52.69563352910605</v>
+        <v>60.13945442156555</v>
       </c>
       <c r="R11">
-        <v>52.69563352910605</v>
+        <v>541.2550897940899</v>
       </c>
       <c r="S11">
-        <v>0.3332811869063912</v>
+        <v>0.2534465831901404</v>
       </c>
       <c r="T11">
-        <v>0.3332811869063912</v>
+        <v>0.2534465831901404</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.716654861751555</v>
+        <v>0.7955433333333333</v>
       </c>
       <c r="H12">
-        <v>0.716654861751555</v>
+        <v>2.38663</v>
       </c>
       <c r="I12">
-        <v>0.7822120870497306</v>
+        <v>0.6563511613331356</v>
       </c>
       <c r="J12">
-        <v>0.7822120870497306</v>
+        <v>0.6563511613331356</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>24.9809295181275</v>
+        <v>25.85093633333333</v>
       </c>
       <c r="N12">
-        <v>24.9809295181275</v>
+        <v>77.552809</v>
       </c>
       <c r="O12">
-        <v>0.1447539061994094</v>
+        <v>0.1320476928434343</v>
       </c>
       <c r="P12">
-        <v>0.1447539061994094</v>
+        <v>0.1320476928434343</v>
       </c>
       <c r="Q12">
-        <v>17.902704590239</v>
+        <v>20.56554006040778</v>
       </c>
       <c r="R12">
-        <v>17.902704590239</v>
+        <v>185.08986054367</v>
       </c>
       <c r="S12">
-        <v>0.113228255076841</v>
+        <v>0.08666965654914932</v>
       </c>
       <c r="T12">
-        <v>0.113228255076841</v>
+        <v>0.08666965654914929</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,805 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.7955433333333333</v>
+      </c>
+      <c r="H13">
+        <v>2.38663</v>
+      </c>
+      <c r="I13">
+        <v>0.6563511613331356</v>
+      </c>
+      <c r="J13">
+        <v>0.6563511613331356</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>3.161759</v>
+      </c>
+      <c r="N13">
+        <v>9.485277</v>
+      </c>
+      <c r="O13">
+        <v>0.01615040073959013</v>
+      </c>
+      <c r="P13">
+        <v>0.01615040073959013</v>
+      </c>
+      <c r="Q13">
+        <v>2.515316294056666</v>
+      </c>
+      <c r="R13">
+        <v>22.63784664651</v>
+      </c>
+      <c r="S13">
+        <v>0.01060033428142552</v>
+      </c>
+      <c r="T13">
+        <v>0.01060033428142552</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>22</v>
       </c>
-      <c r="C13" t="s">
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.02078766666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.062363</v>
+      </c>
+      <c r="I14">
+        <v>0.01715055432732277</v>
+      </c>
+      <c r="J14">
+        <v>0.01715055432732277</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>23.115164</v>
+      </c>
+      <c r="N14">
+        <v>69.34549200000001</v>
+      </c>
+      <c r="O14">
+        <v>0.1180732502892685</v>
+      </c>
+      <c r="P14">
+        <v>0.1180732502892685</v>
+      </c>
+      <c r="Q14">
+        <v>0.4805103241773334</v>
+      </c>
+      <c r="R14">
+        <v>4.324592917596001</v>
+      </c>
+      <c r="S14">
+        <v>0.002025021693689679</v>
+      </c>
+      <c r="T14">
+        <v>0.002025021693689678</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.02078766666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.062363</v>
+      </c>
+      <c r="I15">
+        <v>0.01715055432732277</v>
+      </c>
+      <c r="J15">
+        <v>0.01715055432732277</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1.438934333333333</v>
+      </c>
+      <c r="N15">
+        <v>4.316803</v>
+      </c>
+      <c r="O15">
+        <v>0.007350138363261811</v>
+      </c>
+      <c r="P15">
+        <v>0.007350138363261811</v>
+      </c>
+      <c r="Q15">
+        <v>0.02991208727655555</v>
+      </c>
+      <c r="R15">
+        <v>0.269208785489</v>
+      </c>
+      <c r="S15">
+        <v>0.000126058947312461</v>
+      </c>
+      <c r="T15">
+        <v>0.000126058947312461</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.02078766666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.062363</v>
+      </c>
+      <c r="I16">
+        <v>0.01715055432732277</v>
+      </c>
+      <c r="J16">
+        <v>0.01715055432732277</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>66.60745199999999</v>
+      </c>
+      <c r="N16">
+        <v>199.822356</v>
+      </c>
+      <c r="O16">
+        <v>0.3402337249749314</v>
+      </c>
+      <c r="P16">
+        <v>0.3402337249749314</v>
+      </c>
+      <c r="Q16">
+        <v>1.384613509692</v>
+      </c>
+      <c r="R16">
+        <v>12.461521587228</v>
+      </c>
+      <c r="S16">
+        <v>0.005835196984169956</v>
+      </c>
+      <c r="T16">
+        <v>0.005835196984169956</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.02078766666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.062363</v>
+      </c>
+      <c r="I17">
+        <v>0.01715055432732277</v>
+      </c>
+      <c r="J17">
+        <v>0.01715055432732277</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>75.59544766666666</v>
+      </c>
+      <c r="N17">
+        <v>226.786343</v>
+      </c>
+      <c r="O17">
+        <v>0.3861447927895138</v>
+      </c>
+      <c r="P17">
+        <v>0.3861447927895138</v>
+      </c>
+      <c r="Q17">
+        <v>1.571452967612111</v>
+      </c>
+      <c r="R17">
+        <v>14.143076708509</v>
+      </c>
+      <c r="S17">
+        <v>0.006622597246949351</v>
+      </c>
+      <c r="T17">
+        <v>0.006622597246949351</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.02078766666666667</v>
+      </c>
+      <c r="H18">
+        <v>0.062363</v>
+      </c>
+      <c r="I18">
+        <v>0.01715055432732277</v>
+      </c>
+      <c r="J18">
+        <v>0.01715055432732277</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>25.85093633333333</v>
+      </c>
+      <c r="N18">
+        <v>77.552809</v>
+      </c>
+      <c r="O18">
+        <v>0.1320476928434343</v>
+      </c>
+      <c r="P18">
+        <v>0.1320476928434343</v>
+      </c>
+      <c r="Q18">
+        <v>0.5373806475185555</v>
+      </c>
+      <c r="R18">
+        <v>4.836425827667</v>
+      </c>
+      <c r="S18">
+        <v>0.002264691129908951</v>
+      </c>
+      <c r="T18">
+        <v>0.00226469112990895</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>23</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.02078766666666667</v>
+      </c>
+      <c r="H19">
+        <v>0.062363</v>
+      </c>
+      <c r="I19">
+        <v>0.01715055432732277</v>
+      </c>
+      <c r="J19">
+        <v>0.01715055432732277</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>3.161759</v>
+      </c>
+      <c r="N19">
+        <v>9.485277</v>
+      </c>
+      <c r="O19">
+        <v>0.01615040073959013</v>
+      </c>
+      <c r="P19">
+        <v>0.01615040073959013</v>
+      </c>
+      <c r="Q19">
+        <v>0.06572559217233333</v>
+      </c>
+      <c r="R19">
+        <v>0.591530329551</v>
+      </c>
+      <c r="S19">
+        <v>0.0002769883252923745</v>
+      </c>
+      <c r="T19">
+        <v>0.0002769883252923744</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.1213023333333333</v>
+      </c>
+      <c r="H20">
+        <v>0.363907</v>
+      </c>
+      <c r="I20">
+        <v>0.100078680845903</v>
+      </c>
+      <c r="J20">
+        <v>0.100078680845903</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>23.115164</v>
+      </c>
+      <c r="N20">
+        <v>69.34549200000001</v>
+      </c>
+      <c r="O20">
+        <v>0.1180732502892685</v>
+      </c>
+      <c r="P20">
+        <v>0.1180732502892685</v>
+      </c>
+      <c r="Q20">
+        <v>2.803923328582667</v>
+      </c>
+      <c r="R20">
+        <v>25.235309957244</v>
+      </c>
+      <c r="S20">
+        <v>0.01181661513213812</v>
+      </c>
+      <c r="T20">
+        <v>0.01181661513213812</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.1213023333333333</v>
+      </c>
+      <c r="H21">
+        <v>0.363907</v>
+      </c>
+      <c r="I21">
+        <v>0.100078680845903</v>
+      </c>
+      <c r="J21">
+        <v>0.100078680845903</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1.438934333333333</v>
+      </c>
+      <c r="N21">
+        <v>4.316803</v>
+      </c>
+      <c r="O21">
+        <v>0.007350138363261811</v>
+      </c>
+      <c r="P21">
+        <v>0.007350138363261811</v>
+      </c>
+      <c r="Q21">
+        <v>0.1745460921467778</v>
+      </c>
+      <c r="R21">
+        <v>1.570914829321</v>
+      </c>
+      <c r="S21">
+        <v>0.0007355921514301065</v>
+      </c>
+      <c r="T21">
+        <v>0.0007355921514301064</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.1213023333333333</v>
+      </c>
+      <c r="H22">
+        <v>0.363907</v>
+      </c>
+      <c r="I22">
+        <v>0.100078680845903</v>
+      </c>
+      <c r="J22">
+        <v>0.100078680845903</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>66.60745199999999</v>
+      </c>
+      <c r="N22">
+        <v>199.822356</v>
+      </c>
+      <c r="O22">
+        <v>0.3402337249749314</v>
+      </c>
+      <c r="P22">
+        <v>0.3402337249749314</v>
+      </c>
+      <c r="Q22">
+        <v>8.079639344987999</v>
+      </c>
+      <c r="R22">
+        <v>72.71675410489199</v>
+      </c>
+      <c r="S22">
+        <v>0.03405014237477889</v>
+      </c>
+      <c r="T22">
+        <v>0.03405014237477889</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.1213023333333333</v>
+      </c>
+      <c r="H23">
+        <v>0.363907</v>
+      </c>
+      <c r="I23">
+        <v>0.100078680845903</v>
+      </c>
+      <c r="J23">
+        <v>0.100078680845903</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>75.59544766666666</v>
+      </c>
+      <c r="N23">
+        <v>226.786343</v>
+      </c>
+      <c r="O23">
+        <v>0.3861447927895138</v>
+      </c>
+      <c r="P23">
+        <v>0.3861447927895138</v>
+      </c>
+      <c r="Q23">
+        <v>9.169904191344555</v>
+      </c>
+      <c r="R23">
+        <v>82.529137722101</v>
+      </c>
+      <c r="S23">
+        <v>0.03864486147788909</v>
+      </c>
+      <c r="T23">
+        <v>0.03864486147788909</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
         <v>27</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.716654861751555</v>
-      </c>
-      <c r="H13">
-        <v>0.716654861751555</v>
-      </c>
-      <c r="I13">
-        <v>0.7822120870497306</v>
-      </c>
-      <c r="J13">
-        <v>0.7822120870497306</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>2.91573854085714</v>
-      </c>
-      <c r="N13">
-        <v>2.91573854085714</v>
-      </c>
-      <c r="O13">
-        <v>0.0168954699199229</v>
-      </c>
-      <c r="P13">
-        <v>0.0168954699199229</v>
-      </c>
-      <c r="Q13">
-        <v>2.089578200901654</v>
-      </c>
-      <c r="R13">
-        <v>2.089578200901654</v>
-      </c>
-      <c r="S13">
-        <v>0.01321584078774884</v>
-      </c>
-      <c r="T13">
-        <v>0.01321584078774884</v>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.1213023333333333</v>
+      </c>
+      <c r="H24">
+        <v>0.363907</v>
+      </c>
+      <c r="I24">
+        <v>0.100078680845903</v>
+      </c>
+      <c r="J24">
+        <v>0.100078680845903</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>25.85093633333333</v>
+      </c>
+      <c r="N24">
+        <v>77.552809</v>
+      </c>
+      <c r="O24">
+        <v>0.1320476928434343</v>
+      </c>
+      <c r="P24">
+        <v>0.1320476928434343</v>
+      </c>
+      <c r="Q24">
+        <v>3.135778896084778</v>
+      </c>
+      <c r="R24">
+        <v>28.222010064763</v>
+      </c>
+      <c r="S24">
+        <v>0.01321515890851589</v>
+      </c>
+      <c r="T24">
+        <v>0.01321515890851589</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.1213023333333333</v>
+      </c>
+      <c r="H25">
+        <v>0.363907</v>
+      </c>
+      <c r="I25">
+        <v>0.100078680845903</v>
+      </c>
+      <c r="J25">
+        <v>0.100078680845903</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>3.161759</v>
+      </c>
+      <c r="N25">
+        <v>9.485277</v>
+      </c>
+      <c r="O25">
+        <v>0.01615040073959013</v>
+      </c>
+      <c r="P25">
+        <v>0.01615040073959013</v>
+      </c>
+      <c r="Q25">
+        <v>0.3835287441376666</v>
+      </c>
+      <c r="R25">
+        <v>3.451758697239</v>
+      </c>
+      <c r="S25">
+        <v>0.001616310801150876</v>
+      </c>
+      <c r="T25">
+        <v>0.001616310801150876</v>
       </c>
     </row>
   </sheetData>
